--- a/北京二手房成交记录0526.xlsx
+++ b/北京二手房成交记录0526.xlsx
@@ -580,7 +580,7 @@
   <dimension ref="A1:G62"/>
   <sheetViews>
     <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="G58" sqref="G58"/>
+      <selection activeCell="G59" sqref="G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1720,6 +1720,24 @@
       <c r="A59" s="7">
         <v>201600527</v>
       </c>
+      <c r="B59" s="5">
+        <v>45803</v>
+      </c>
+      <c r="C59" s="5">
+        <v>83747</v>
+      </c>
+      <c r="D59" s="5">
+        <v>36831</v>
+      </c>
+      <c r="E59" s="5">
+        <v>3.6</v>
+      </c>
+      <c r="F59" s="5">
+        <v>230</v>
+      </c>
+      <c r="G59" s="5">
+        <v>9853</v>
+      </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A60" s="7">
@@ -1748,7 +1766,7 @@
   <dimension ref="A1:G62"/>
   <sheetViews>
     <sheetView topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="G58" sqref="G58"/>
+      <selection activeCell="G59" sqref="G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -2887,6 +2905,24 @@
       <c r="A59" s="7">
         <v>201600527</v>
       </c>
+      <c r="B59" s="5">
+        <v>75171</v>
+      </c>
+      <c r="C59" s="5">
+        <v>149</v>
+      </c>
+      <c r="D59" s="5">
+        <v>91</v>
+      </c>
+      <c r="E59" s="5">
+        <v>49</v>
+      </c>
+      <c r="F59" s="5">
+        <v>26</v>
+      </c>
+      <c r="G59" s="5">
+        <v>1258</v>
+      </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A60" s="7">
@@ -2915,7 +2951,7 @@
   <dimension ref="A1:M62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="I57" sqref="I57"/>
+      <selection activeCell="I58" sqref="I58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -4713,6 +4749,30 @@
     <row r="58" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A58" s="7">
         <v>201600526</v>
+      </c>
+      <c r="B58" s="5">
+        <v>1272</v>
+      </c>
+      <c r="C58" s="15">
+        <v>115818.95</v>
+      </c>
+      <c r="D58" s="5">
+        <v>1124</v>
+      </c>
+      <c r="E58" s="15">
+        <v>105374.67</v>
+      </c>
+      <c r="F58" s="5">
+        <v>493</v>
+      </c>
+      <c r="G58" s="15">
+        <v>47450.92</v>
+      </c>
+      <c r="H58" s="5">
+        <v>419</v>
+      </c>
+      <c r="I58" s="15">
+        <v>36087.71</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.15">
